--- a/docs/ScreepsWorkerManagerPlan.xlsx
+++ b/docs/ScreepsWorkerManagerPlan.xlsx
@@ -782,16 +782,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="I5:M5"/>
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
